--- a/Jogos_do_Dia/2023-02-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -715,7 +715,7 @@
         <v>5.75</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE2">
         <v>1.38</v>
@@ -747,13 +747,13 @@
         <v>43</v>
       </c>
       <c r="F3">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G3">
         <v>3.5</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I3">
         <v>1.05</v>
@@ -768,10 +768,10 @@
         <v>2.67</v>
       </c>
       <c r="M3">
-        <v>2.09</v>
+        <v>2.18</v>
       </c>
       <c r="N3">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="O3">
         <v>1.49</v>
@@ -810,28 +810,28 @@
         <v>2.48</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -851,52 +851,52 @@
         <v>44</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.97</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V4">
         <v>2.5</v>
@@ -955,13 +955,13 @@
         <v>45</v>
       </c>
       <c r="F5">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="G5">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H5">
-        <v>4.55</v>
+        <v>5.5</v>
       </c>
       <c r="I5">
         <v>1.04</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-02-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -750,10 +750,10 @@
         <v>1.57</v>
       </c>
       <c r="G3">
-        <v>3.5</v>
+        <v>3.84</v>
       </c>
       <c r="H3">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="I3">
         <v>1.05</v>
@@ -768,10 +768,10 @@
         <v>2.67</v>
       </c>
       <c r="M3">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="N3">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="O3">
         <v>1.49</v>
@@ -851,13 +851,13 @@
         <v>44</v>
       </c>
       <c r="F4">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="G4">
-        <v>3.55</v>
+        <v>3.54</v>
       </c>
       <c r="H4">
-        <v>3.97</v>
+        <v>4.5</v>
       </c>
       <c r="I4">
         <v>1.04</v>
@@ -872,10 +872,10 @@
         <v>2.88</v>
       </c>
       <c r="M4">
-        <v>2.09</v>
+        <v>2.01</v>
       </c>
       <c r="N4">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="O4">
         <v>1.45</v>
@@ -914,28 +914,28 @@
         <v>2.95</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>4.02</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -955,13 +955,13 @@
         <v>45</v>
       </c>
       <c r="F5">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G5">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="H5">
-        <v>5.5</v>
+        <v>5.55</v>
       </c>
       <c r="I5">
         <v>1.04</v>
@@ -976,10 +976,10 @@
         <v>3.9</v>
       </c>
       <c r="M5">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="N5">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O5">
         <v>1.33</v>
